--- a/labs/harvest/lab-harvest.xlsx
+++ b/labs/harvest/lab-harvest.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Excercise I" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Exercise II" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Exercise III" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Excercise I" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Exercise II" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Exercise III" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -347,44 +347,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -460,236 +464,342 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="12.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="44"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B2" s="1" t="n">
+      <c r="A2" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2006</v>
-      </c>
-      <c r="B3" s="1" t="n">
+      <c r="A3" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="0" t="n">
+      <c r="C3" s="3"/>
+      <c r="D3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>2007</v>
-      </c>
-      <c r="B4" s="1" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="0" t="n">
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>2008</v>
-      </c>
-      <c r="B5" s="1" t="n">
+      <c r="A5" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>156.25</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>2009</v>
-      </c>
-      <c r="B6" s="1" t="n">
+      <c r="A6" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>390.625</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="0" t="n">
+      <c r="C6" s="3"/>
+      <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B7" s="1" t="n">
+      <c r="A7" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>976.5625</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="0" t="n">
+      <c r="C7" s="3"/>
+      <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B8" s="1" t="n">
+      <c r="A8" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>2441.40625</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="0" t="n">
+      <c r="C8" s="3"/>
+      <c r="D8" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B9" s="1" t="n">
+      <c r="A9" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="2" t="n">
         <v>6103.515625</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="1" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="1" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="1" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="1" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="1" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="1" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="1" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="1" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="1" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="1" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="D21" s="0" t="s">
+      <c r="A21" s="1" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -705,446 +815,446 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="31.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="31.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="E2" s="0" t="n">
+      <c r="C2" s="4"/>
+      <c r="E2" s="1" t="n">
         <v>0.32</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="K2" s="0" t="n">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="2"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="2"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="2"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="2"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="2"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="2"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="2"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="2"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="2"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="2"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="6" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1158,294 +1268,294 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="34.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="34.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="0" t="n">
+      <c r="B3" s="3"/>
+      <c r="D3" s="1" t="n">
         <v>0.95</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="H4" s="0" t="n">
+      <c r="B4" s="3"/>
+      <c r="H4" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="H5" s="0" t="n">
+      <c r="B5" s="3"/>
+      <c r="H5" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="M5" s="0" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="M5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="H6" s="0" t="n">
+      <c r="B6" s="3"/>
+      <c r="H6" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="H7" s="0" t="n">
+      <c r="B7" s="3"/>
+      <c r="H7" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="H8" s="0" t="n">
+      <c r="B8" s="3"/>
+      <c r="H8" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="H9" s="0" t="n">
+      <c r="B9" s="3"/>
+      <c r="H9" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="H10" s="0" t="n">
+      <c r="B10" s="3"/>
+      <c r="H10" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="H11" s="0" t="n">
+      <c r="B11" s="3"/>
+      <c r="H11" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="H12" s="0" t="n">
+      <c r="B12" s="3"/>
+      <c r="H12" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="H13" s="0" t="n">
+      <c r="B13" s="3"/>
+      <c r="H13" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="H14" s="0" t="n">
+      <c r="B14" s="3"/>
+      <c r="H14" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="H15" s="0" t="n">
+      <c r="B15" s="3"/>
+      <c r="H15" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="H16" s="0" t="n">
+      <c r="B16" s="3"/>
+      <c r="H16" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="H17" s="9" t="n">
+      <c r="B17" s="3"/>
+      <c r="H17" s="10" t="n">
         <v>150</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="H18" s="9"/>
+      <c r="B18" s="3"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="H19" s="9"/>
+      <c r="B19" s="3"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="H20" s="9"/>
+      <c r="B20" s="3"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="H21" s="9"/>
+      <c r="B21" s="3"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="H22" s="9"/>
+      <c r="B22" s="3"/>
+      <c r="H22" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/labs/harvest/lab-harvest.xlsx
+++ b/labs/harvest/lab-harvest.xlsx
@@ -578,10 +578,10 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.43"/>
@@ -825,7 +825,7 @@
       <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22"/>
@@ -1272,13 +1272,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
+      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15"/>
@@ -1286,7 +1286,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="34.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1324,9 +1324,6 @@
       <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -1348,7 +1345,6 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="M3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -1373,9 +1369,6 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -1388,7 +1381,6 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="M6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -1542,6 +1534,9 @@
       </c>
       <c r="B20" s="3"/>
       <c r="H20" s="10"/>
+      <c r="I20" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -1549,6 +1544,9 @@
       </c>
       <c r="B21" s="3"/>
       <c r="H21" s="10"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -1557,9 +1555,21 @@
       <c r="B22" s="3"/>
       <c r="H22" s="10"/>
     </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I24:K24"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/labs/harvest/lab-harvest.xlsx
+++ b/labs/harvest/lab-harvest.xlsx
@@ -578,7 +578,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1286,7 +1286,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="34.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
